--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110636059</v>
+        <v>110635067</v>
       </c>
       <c r="B2" t="n">
-        <v>103265</v>
+        <v>89425</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>595044.2781667351</v>
+        <v>595125.8014220446</v>
       </c>
       <c r="R2" t="n">
-        <v>6396053.751719909</v>
+        <v>6396072.244815239</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110635067</v>
+        <v>110637139</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>103288</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,51 +814,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo (Dagsbo), Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595125.8014220446</v>
+        <v>594774.1513157194</v>
       </c>
       <c r="R3" t="n">
-        <v>6396072.244815239</v>
+        <v>6396174.114388627</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -887,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +888,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110637170</v>
+        <v>110636059</v>
       </c>
       <c r="B4" t="n">
-        <v>103265</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -959,7 +950,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -974,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>594776.452011085</v>
+        <v>595044.2781667351</v>
       </c>
       <c r="R4" t="n">
-        <v>6396190.207268835</v>
+        <v>6396053.751719909</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -1009,7 +1000,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1010,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110637139</v>
+        <v>110635405</v>
       </c>
       <c r="B5" t="n">
-        <v>103265</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,42 +1049,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Dagsbo (Dagsbo), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>594774.1513157194</v>
+        <v>595102.8807649282</v>
       </c>
       <c r="R5" t="n">
-        <v>6396174.114388627</v>
+        <v>6396067.427930923</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1159,10 +1159,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110636824</v>
+        <v>110636846</v>
       </c>
       <c r="B6" t="n">
-        <v>103265</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,25 +1171,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>594821.877542478</v>
+        <v>594828.1389969039</v>
       </c>
       <c r="R6" t="n">
-        <v>6396080.603669374</v>
+        <v>6396087.701019844</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110635405</v>
+        <v>110636824</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>103288</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1284,48 +1284,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storön (Storön), Sm</t>
+          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595102.8807649282</v>
+        <v>594821.877542478</v>
       </c>
       <c r="R7" t="n">
-        <v>6396067.427930923</v>
+        <v>6396080.603669374</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1357,7 +1348,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1367,7 +1358,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1394,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110636846</v>
+        <v>110637170</v>
       </c>
       <c r="B8" t="n">
-        <v>89412</v>
+        <v>103288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1406,39 +1397,48 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Dagsbo; Verkebäcksviken (Dagsbo; Verkebäcksviken), Sm</t>
+          <t>Storön (Storön), Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>594828.1389969039</v>
+        <v>594776.452011085</v>
       </c>
       <c r="R8" t="n">
-        <v>6396087.701019844</v>
+        <v>6396190.207268835</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
